--- a/medicine/Enfance/Mike_Nicol/Mike_Nicol.xlsx
+++ b/medicine/Enfance/Mike_Nicol/Mike_Nicol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mike Nicol, né en 1951 au Cap, est un écrivain et journaliste sud-africain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir terminé ses études à Johannesbourg, Mike Nicol travaille comme journaliste pour le magazine Leadership[1]. En 1978, il publie Among the Souvenirs, un recueils de poèmes qui remporte le Prix Ingrid-Jonker 1979.
-À la fin des années 1980, il se lance avec succès dans le roman, puis aborde en 2006 le roman policier pour devenir l'un des auteurs majeurs du polar sud-africain avec Deon Meyer et Roger Smith[2],[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir terminé ses études à Johannesbourg, Mike Nicol travaille comme journaliste pour le magazine Leadership. En 1978, il publie Among the Souvenirs, un recueils de poèmes qui remporte le Prix Ingrid-Jonker 1979.
+À la fin des années 1980, il se lance avec succès dans le roman, puis aborde en 2006 le roman policier pour devenir l'un des auteurs majeurs du polar sud-africain avec Deon Meyer et Roger Smith.
 </t>
         </is>
       </c>
@@ -545,31 +559,251 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-(en) Among the Souvenirs, 1978Prix Ingrid-Jonker 1979
-(en) This Sad Place, 1993
-Romans
-La Loi du capitaine, Seuil, coll. « Cadre Vert », 1991 ((en) The Powers That Be, 1989), trad. Catherine Glenn-Lauga, 283 p.  (ISBN 2-02-012910-8)
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Among the Souvenirs, 1978Prix Ingrid-Jonker 1979
+(en) This Sad Place, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Loi du capitaine, Seuil, coll. « Cadre Vert », 1991 ((en) The Powers That Be, 1989), trad. Catherine Glenn-Lauga, 283 p.  (ISBN 2-02-012910-8)
 Le Temps du prophète, Seuil, coll. « Cadre Vert », 1993 ((en) This Day and Age, 1992), trad. Catherine Glenn-Lauga, 346 p.  (ISBN 2-02-013660-0)
 Le Cavalier, Seuil, coll. « Cadre Vert », 1998 ((en) Horseman, 1994), trad. Catherine Glenn-Lauga, 301 p.  (ISBN 2-02-024803-4)
-La Tapisserie à l'ibis, Seuil, coll. « Cadre Vert », 2004 ((en) The Ibis Tapestry, 1998), trad. Catherine Lauga du Plessis, 268 p.  (ISBN 2-02-031186-0)
-Romans policiers
-Série Vengeance (Revenge)
-La Dette[6], Ombres noires, 2013 ((en) Payback, 2008), trad. Estelle Roudet, 554 p.  (ISBN 978-2-08-127793-9)
+La Tapisserie à l'ibis, Seuil, coll. « Cadre Vert », 2004 ((en) The Ibis Tapestry, 1998), trad. Catherine Lauga du Plessis, 268 p.  (ISBN 2-02-031186-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Vengeance (Revenge)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Dette, Ombres noires, 2013 ((en) Payback, 2008), trad. Estelle Roudet, 554 p.  (ISBN 978-2-08-127793-9)
 Killer Country, Ombres noires, 2014 ((en) Killer Country, 2010), trad. Estelle Roudet, 535 p.  (ISBN 978-2-0812-7794-6)
-(en) Black Heart[7], 2011
-Série Fish Pescado et Vicky Kahn (PI Fish Pescado and Vicki Kahn)
-Du sang sur l'arc-en-ciel, Seuil, coll. « Seuil policiers », 2015 ((en) Of Cops &amp; Robbers, 2013), trad. Jean Esch, 496 p.  (ISBN 978-2-02-123078-9)
+(en) Black Heart, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Fish Pescado et Vicky Kahn (PI Fish Pescado and Vicki Kahn)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Du sang sur l'arc-en-ciel, Seuil, coll. « Seuil policiers », 2015 ((en) Of Cops &amp; Robbers, 2013), trad. Jean Esch, 496 p.  (ISBN 978-2-02-123078-9)
 L’Agence, Gallimard, coll. « Série noire », 2019 ((en) Agents of the State, 2019), trad. Jean Esch, 560 p.  (ISBN 978-2-072828-676)Réédition, Gallimard, coll. « Folio policier » no 953, 2022, 560 p.  (ISBN 978-2-07-292292-3)
-Infiltrée, Gallimard, coll. « Série noire », 2022 ((en) Sleeper, 2018), trad. Jean Esch, 576 p.  (ISBN 978-2-07-290598-8)[8], Sélection Grand Prix de littérature policière 2022[9]
-Rabbit Hole, Gallimard, coll. « Série noire » ((en) The Rabbit Hole[10], 2021)
-Autres romans policiers
-(en) Out to Score, 2006Coécrit avec Joanne Hichens.
-Power Play, Seuil, coll. « Seuil policiers », 2018 ((en) Power Play, 2015), trad. Jean Esch, 384 p.  (ISBN 978-2-02-130378-0)
-Nouvelle
-(en) Bra Henry, 1997
-Essais
-(en) A Good-Looking Corpse, 1991
+Infiltrée, Gallimard, coll. « Série noire », 2022 ((en) Sleeper, 2018), trad. Jean Esch, 576 p.  (ISBN 978-2-07-290598-8), Sélection Grand Prix de littérature policière 2022
+Rabbit Hole, Gallimard, coll. « Série noire » ((en) The Rabbit Hole, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Out to Score, 2006Coécrit avec Joanne Hichens.
+Power Play, Seuil, coll. « Seuil policiers », 2018 ((en) Power Play, 2015), trad. Jean Esch, 384 p.  (ISBN 978-2-02-130378-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Bra Henry, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) A Good-Looking Corpse, 1991
 (en) A Waiting Country. A South African Witness, 1994
 (en) The Invisible Line. The Life and Photography of Ken Oosterbroek, 2000
 (en) Sea-Mountain, Fire City. Living in Cape Town at the Turn of the 20th Century, 2001
@@ -577,9 +811,43 @@
 Mandela. Le Portrait autorisé, Acropole, 2006 ((en) Mandela. The Authorised Portrait, 2006), 355 p.  (ISBN 2-7357-0260-X)
 (en) John Lennon – Imagine, 2008
 (en) Monkey Business. The Murder of Anni Dewani – the facts, the fiction, the spin, 2011
-(en) Mandela. Celebrating the Legacy, 2013
-Ouvrages de littérature d'enfance et de jeunesse
-(en) Africana Animals, 1982
+(en) Mandela. Celebrating the Legacy, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mike_Nicol</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Africana Animals, 1982
 (en) What Daddy Loves, 2003Coécrit avec Jerry Smath.</t>
         </is>
       </c>
